--- a/public/user13/kia5/pws5.xlsx
+++ b/public/user13/kia5/pws5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>REKAPITULASI LAPORAN PWS-KIA (IBU)</t>
   </si>
@@ -37,7 +37,7 @@
     <t>PROPINSI         :  NUSA TENGGARA BARAT</t>
   </si>
   <si>
-    <t>BULAN              :  JANUARI 2015</t>
+    <t>BULAN              :  </t>
   </si>
   <si>
     <t>NO</t>
@@ -82,40 +82,7 @@
     <t>%</t>
   </si>
   <si>
-    <t>Pengembur I</t>
-  </si>
-  <si>
-    <t>Pengembur II</t>
-  </si>
-  <si>
-    <t>Pengembur III</t>
-  </si>
-  <si>
-    <t>Penyampi</t>
-  </si>
-  <si>
-    <t>Batu Belek</t>
-  </si>
-  <si>
-    <t>Tawah</t>
-  </si>
-  <si>
-    <t>Perigi</t>
-  </si>
-  <si>
-    <t>Sinah</t>
-  </si>
-  <si>
-    <t>Siwang</t>
-  </si>
-  <si>
-    <t>Tamping</t>
-  </si>
-  <si>
-    <t>Sepit</t>
-  </si>
-  <si>
-    <t>Keramat</t>
+    <t> </t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -182,6 +149,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -502,23 +470,23 @@
   </sheetPr>
   <dimension ref="A2:N65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.21481481481482"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.03703703703704"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.25185185185185"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.25185185185185"/>
-    <col collapsed="false" hidden="false" max="18" min="15" style="0" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.8555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0148148148148"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.32962962962963"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.8"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="18" min="15" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.5444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -689,9 +657,7 @@
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B12" s="14"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -719,9 +685,7 @@
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -749,9 +713,7 @@
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -779,9 +741,7 @@
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -809,9 +769,7 @@
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -839,9 +797,7 @@
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -869,9 +825,7 @@
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="B18" s="14"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -899,9 +853,7 @@
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
-      <c r="B19" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="B19" s="14"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -929,9 +881,7 @@
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="B20" s="14"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -959,9 +909,7 @@
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="B21" s="14"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -989,9 +937,7 @@
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -1019,9 +965,7 @@
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="B23" s="14"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -1076,14 +1020,14 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="15" t="n">
         <f aca="false">H25+G25</f>
         <v>0</v>
@@ -1104,52 +1048,26 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="n">
-        <f aca="false">SUM(C25:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="19" t="n">
-        <f aca="false">SUM(D25:D25)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="19" t="n">
-        <f aca="false">SUM(E25:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="19" t="n">
-        <f aca="false">SUM(F25:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="19" t="n">
-        <f aca="false">SUM(G25:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="19" t="n">
-        <f aca="false">SUM(H25:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="19" t="n">
-        <f aca="false">SUM(I25:I25)</f>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="15" t="n">
+        <f aca="false">H26+G26</f>
         <v>0</v>
       </c>
       <c r="J26" s="16" t="e">
         <f aca="false">I26/C26*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="19" t="n">
-        <f aca="false">SUM(K25:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="19" t="n">
-        <f aca="false">SUM(L25:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="19" t="n">
-        <f aca="false">SUM(M25:M25)</f>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15" t="n">
+        <f aca="false">L26+K26</f>
         <v>0</v>
       </c>
       <c r="N26" s="16" t="e">
@@ -1157,83 +1075,1319 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="15" t="n">
+        <f aca="false">H27+G27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="16" t="e">
+        <f aca="false">I27/C27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15" t="n">
+        <f aca="false">L27+K27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="16" t="e">
+        <f aca="false">M27/C27*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J28" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="21"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="15" t="n">
+        <f aca="false">H28+G28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="16" t="e">
+        <f aca="false">I28/C28*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15" t="n">
+        <f aca="false">L28+K28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="16" t="e">
+        <f aca="false">M28/C28*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J29" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="21"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="15" t="n">
+        <f aca="false">H29+G29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="16" t="e">
+        <f aca="false">I29/C29*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15" t="n">
+        <f aca="false">L29+K29</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="16" t="e">
+        <f aca="false">M29/C29*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="15" t="n">
+        <f aca="false">H30+G30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="16" t="e">
+        <f aca="false">I30/C30*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15" t="n">
+        <f aca="false">L30+K30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="16" t="e">
+        <f aca="false">M30/C30*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="15" t="n">
+        <f aca="false">H31+G31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="16" t="e">
+        <f aca="false">I31/C31*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15" t="n">
+        <f aca="false">L31+K31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="16" t="e">
+        <f aca="false">M31/C31*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J32" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="23"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="15" t="n">
+        <f aca="false">H32+G32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="16" t="e">
+        <f aca="false">I32/C32*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15" t="n">
+        <f aca="false">L32+K32</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="16" t="e">
+        <f aca="false">M32/C32*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J33" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="15" t="n">
+        <f aca="false">H33+G33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="16" t="e">
+        <f aca="false">I33/C33*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15" t="n">
+        <f aca="false">L33+K33</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="16" t="e">
+        <f aca="false">M33/C33*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="15" t="n">
+        <f aca="false">H34+G34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="16" t="e">
+        <f aca="false">I34/C34*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15" t="n">
+        <f aca="false">L34+K34</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="16" t="e">
+        <f aca="false">M34/C34*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="15" t="n">
+        <f aca="false">H35+G35</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="16" t="e">
+        <f aca="false">I35/C35*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15" t="n">
+        <f aca="false">L35+K35</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="16" t="e">
+        <f aca="false">M35/C35*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="15" t="n">
+        <f aca="false">H36+G36</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="16" t="e">
+        <f aca="false">I36/C36*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15" t="n">
+        <f aca="false">L36+K36</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="16" t="e">
+        <f aca="false">M36/C36*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="15" t="n">
+        <f aca="false">H37+G37</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="16" t="e">
+        <f aca="false">I37/C37*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15" t="n">
+        <f aca="false">L37+K37</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="16" t="e">
+        <f aca="false">M37/C37*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="15" t="n">
+        <f aca="false">H38+G38</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="16" t="e">
+        <f aca="false">I38/C38*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15" t="n">
+        <f aca="false">L38+K38</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="16" t="e">
+        <f aca="false">M38/C38*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="15" t="n">
+        <f aca="false">H39+G39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="16" t="e">
+        <f aca="false">I39/C39*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15" t="n">
+        <f aca="false">L39+K39</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="16" t="e">
+        <f aca="false">M39/C39*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="15" t="n">
+        <f aca="false">H40+G40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="16" t="e">
+        <f aca="false">I40/C40*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15" t="n">
+        <f aca="false">L40+K40</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="16" t="e">
+        <f aca="false">M40/C40*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="15" t="n">
+        <f aca="false">H41+G41</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="16" t="e">
+        <f aca="false">I41/C41*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15" t="n">
+        <f aca="false">L41+K41</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="16" t="e">
+        <f aca="false">M41/C41*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="15" t="n">
+        <f aca="false">H42+G42</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="16" t="e">
+        <f aca="false">I42/C42*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15" t="n">
+        <f aca="false">L42+K42</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="16" t="e">
+        <f aca="false">M42/C42*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="15" t="n">
+        <f aca="false">H43+G43</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="16" t="e">
+        <f aca="false">I43/C43*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15" t="n">
+        <f aca="false">L43+K43</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="16" t="e">
+        <f aca="false">M43/C43*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="15" t="n">
+        <f aca="false">H44+G44</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16" t="e">
+        <f aca="false">I44/C44*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15" t="n">
+        <f aca="false">L44+K44</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="16" t="e">
+        <f aca="false">M44/C44*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="15" t="n">
+        <f aca="false">H45+G45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="16" t="e">
+        <f aca="false">I45/C45*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15" t="n">
+        <f aca="false">L45+K45</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="16" t="e">
+        <f aca="false">M45/C45*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="15" t="n">
+        <f aca="false">H46+G46</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="16" t="e">
+        <f aca="false">I46/C46*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15" t="n">
+        <f aca="false">L46+K46</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="16" t="e">
+        <f aca="false">M46/C46*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="15" t="n">
+        <f aca="false">H47+G47</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="16" t="e">
+        <f aca="false">I47/C47*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15" t="n">
+        <f aca="false">L47+K47</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="16" t="e">
+        <f aca="false">M47/C47*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="15" t="n">
+        <f aca="false">H48+G48</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="16" t="e">
+        <f aca="false">I48/C48*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15" t="n">
+        <f aca="false">L48+K48</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="16" t="e">
+        <f aca="false">M48/C48*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="15" t="n">
+        <f aca="false">H49+G49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="16" t="e">
+        <f aca="false">I49/C49*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15" t="n">
+        <f aca="false">L49+K49</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="16" t="e">
+        <f aca="false">M49/C49*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="15" t="n">
+        <f aca="false">H50+G50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="16" t="e">
+        <f aca="false">I50/C50*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15" t="n">
+        <f aca="false">L50+K50</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="16" t="e">
+        <f aca="false">M50/C50*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="15" t="n">
+        <f aca="false">H51+G51</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="16" t="e">
+        <f aca="false">I51/C51*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15" t="n">
+        <f aca="false">L51+K51</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="16" t="e">
+        <f aca="false">M51/C51*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="15" t="n">
+        <f aca="false">H52+G52</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="16" t="e">
+        <f aca="false">I52/C52*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15" t="n">
+        <f aca="false">L52+K52</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="16" t="e">
+        <f aca="false">M52/C52*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="15" t="n">
+        <f aca="false">H53+G53</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="16" t="e">
+        <f aca="false">I53/C53*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15" t="n">
+        <f aca="false">L53+K53</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="16" t="e">
+        <f aca="false">M53/C53*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="15" t="n">
+        <f aca="false">H54+G54</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="16" t="e">
+        <f aca="false">I54/C54*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15" t="n">
+        <f aca="false">L54+K54</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="16" t="e">
+        <f aca="false">M54/C54*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="15" t="n">
+        <f aca="false">H55+G55</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="16" t="e">
+        <f aca="false">I55/C55*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15" t="n">
+        <f aca="false">L55+K55</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="16" t="e">
+        <f aca="false">M55/C55*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13"/>
+      <c r="B56" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="15" t="n">
+        <f aca="false">H56+G56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="16" t="e">
+        <f aca="false">I56/C56*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15" t="n">
+        <f aca="false">L56+K56</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="16" t="e">
+        <f aca="false">M56/C56*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13"/>
+      <c r="B57" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="15" t="n">
+        <f aca="false">H57+G57</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="16" t="e">
+        <f aca="false">I57/C57*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15" t="n">
+        <f aca="false">L57+K57</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="16" t="e">
+        <f aca="false">M57/C57*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13"/>
+      <c r="B58" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="15" t="n">
+        <f aca="false">H58+G58</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="16" t="e">
+        <f aca="false">I58/C58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15" t="n">
+        <f aca="false">L58+K58</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="16" t="e">
+        <f aca="false">M58/C58*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="15" t="n">
+        <f aca="false">H59+G59</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="16" t="e">
+        <f aca="false">I59/C59*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15" t="n">
+        <f aca="false">L59+K59</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="16" t="e">
+        <f aca="false">M59/C59*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="15" t="n">
+        <f aca="false">H60+G60</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="16" t="e">
+        <f aca="false">I60/C60*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15" t="n">
+        <f aca="false">L60+K60</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="16" t="e">
+        <f aca="false">M60/C60*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="13"/>
+      <c r="B61" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="15" t="n">
+        <f aca="false">H61+G61</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="16" t="e">
+        <f aca="false">I61/C61*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15" t="n">
+        <f aca="false">L61+K61</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="16" t="e">
+        <f aca="false">M61/C61*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="15" t="n">
+        <f aca="false">H62+G62</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="16" t="e">
+        <f aca="false">I62/C62*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15" t="n">
+        <f aca="false">L62+K62</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="16" t="e">
+        <f aca="false">M62/C62*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="15" t="n">
+        <f aca="false">H63+G63</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="16" t="e">
+        <f aca="false">I63/C63*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15" t="n">
+        <f aca="false">L63+K63</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="16" t="e">
+        <f aca="false">M63/C63*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13"/>
+      <c r="B64" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="15" t="n">
+        <f aca="false">H64+G64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="16" t="e">
+        <f aca="false">I64/C64*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15" t="n">
+        <f aca="false">L64+K64</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="16" t="e">
+        <f aca="false">M64/C64*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="15" t="n">
+        <f aca="false">H65+G65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="16" t="e">
+        <f aca="false">I65/C65*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15" t="n">
+        <f aca="false">L65+K65</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="16" t="e">
+        <f aca="false">M65/C65*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="15" t="n">
+        <f aca="false">H66+G66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="16" t="e">
+        <f aca="false">I66/C66*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15" t="n">
+        <f aca="false">L66+K66</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="16" t="e">
+        <f aca="false">M66/C66*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="15" t="n">
+        <f aca="false">H67+G67</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="16" t="e">
+        <f aca="false">I67/C67*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15" t="n">
+        <f aca="false">L67+K67</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="16" t="e">
+        <f aca="false">M67/C67*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="15" t="n">
+        <f aca="false">H68+G68</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="16" t="e">
+        <f aca="false">I68/C68*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15" t="n">
+        <f aca="false">L68+K68</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="16" t="e">
+        <f aca="false">M68/C68*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="17"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15" t="n">
+        <f aca="false">H69+G69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="16" t="e">
+        <f aca="false">I69/C69*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15" t="n">
+        <f aca="false">L69+K69</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="16" t="e">
+        <f aca="false">M69/C69*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19" t="n">
+        <f aca="false">SUM(C69:C69)</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="19" t="n">
+        <f aca="false">SUM(D69:D69)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="19" t="n">
+        <f aca="false">SUM(E69:E69)</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="19" t="n">
+        <f aca="false">SUM(F69:F69)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="19" t="n">
+        <f aca="false">SUM(G69:G69)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="19" t="n">
+        <f aca="false">SUM(H69:H69)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="19" t="n">
+        <f aca="false">SUM(I69:I69)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="16" t="e">
+        <f aca="false">I70/C70*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K70" s="19" t="n">
+        <f aca="false">SUM(K69:K69)</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="19" t="n">
+        <f aca="false">SUM(L69:L69)</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="19" t="n">
+        <f aca="false">SUM(M69:M69)</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="16" t="e">
+        <f aca="false">M70/C70*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J72" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J73" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J74" s="20"/>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J75" s="20"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J76" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" s="21"/>
+      <c r="L76" s="23"/>
+    </row>
+    <row r="77" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J77" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="21"/>
+    </row>
     <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1534,7 +2688,7 @@
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
